--- a/ExportData/Data User1 Test19-13-04-2021.xlsx
+++ b/ExportData/Data User1 Test19-13-04-2021.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:P21"/>
+  <dimension ref="A3:P99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,17 +540,17 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>-13.02</t>
+          <t>-1.65</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>0.083</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -560,12 +560,12 @@
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>0.083</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>5.000</t>
+          <t>7.500</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>5.000</t>
+          <t>7.500</t>
         </is>
       </c>
       <c r="K4" s="3" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="M4" s="3" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="N4" s="3" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.042</t>
         </is>
       </c>
       <c r="O4" s="3" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>2.499</t>
         </is>
       </c>
       <c r="P4" s="3" t="inlineStr">
@@ -617,17 +617,17 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>-12.22</t>
+          <t>-1.05</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>2.500</t>
+          <t>3.750</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -637,12 +637,12 @@
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>2.500</t>
+          <t>3.750</t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>10.000</t>
+          <t>14.999</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t>10.000</t>
+          <t>14.999</t>
         </is>
       </c>
       <c r="K5" s="3" t="inlineStr">
@@ -672,17 +672,17 @@
       </c>
       <c r="N5" s="3" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>1.250</t>
         </is>
       </c>
       <c r="O5" s="3" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>4.999</t>
         </is>
       </c>
       <c r="P5" s="3" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>21.1</t>
         </is>
       </c>
     </row>
@@ -694,17 +694,17 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>-11.61</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>3.833</t>
+          <t>3.750</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -714,12 +714,12 @@
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>3.833</t>
+          <t>3.750</t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>15.333</t>
+          <t>14.999</t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
-          <t>15.333</t>
+          <t>14.999</t>
         </is>
       </c>
       <c r="K6" s="3" t="inlineStr">
@@ -749,17 +749,17 @@
       </c>
       <c r="N6" s="3" t="inlineStr">
         <is>
-          <t>1.333</t>
+          <t>1.250</t>
         </is>
       </c>
       <c r="O6" s="3" t="inlineStr">
         <is>
-          <t>5.333</t>
+          <t>4.999</t>
         </is>
       </c>
       <c r="P6" s="3" t="inlineStr">
         <is>
-          <t>21.1</t>
+          <t>22.2</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>-10.81</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>5.000</t>
+          <t>3.750</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -791,12 +791,12 @@
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>5.000</t>
+          <t>3.750</t>
         </is>
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>20.000</t>
+          <t>14.999</t>
         </is>
       </c>
       <c r="I7" s="3" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
-          <t>20.000</t>
+          <t>14.999</t>
         </is>
       </c>
       <c r="K7" s="3" t="inlineStr">
@@ -826,17 +826,17 @@
       </c>
       <c r="N7" s="3" t="inlineStr">
         <is>
-          <t>2.500</t>
+          <t>1.250</t>
         </is>
       </c>
       <c r="O7" s="3" t="inlineStr">
         <is>
-          <t>10.000</t>
+          <t>4.999</t>
         </is>
       </c>
       <c r="P7" s="3" t="inlineStr">
         <is>
-          <t>23.3</t>
+          <t>23.2</t>
         </is>
       </c>
     </row>
@@ -848,17 +848,17 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>-10.01</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>5.000</t>
+          <t>3.750</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>5.000</t>
+          <t>3.750</t>
         </is>
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>20.000</t>
+          <t>14.999</t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
-          <t>20.000</t>
+          <t>14.999</t>
         </is>
       </c>
       <c r="K8" s="3" t="inlineStr">
@@ -903,17 +903,17 @@
       </c>
       <c r="N8" s="3" t="inlineStr">
         <is>
-          <t>2.500</t>
+          <t>1.250</t>
         </is>
       </c>
       <c r="O8" s="3" t="inlineStr">
         <is>
-          <t>10.000</t>
+          <t>4.999</t>
         </is>
       </c>
       <c r="P8" s="3" t="inlineStr">
         <is>
-          <t>25.4</t>
+          <t>24.3</t>
         </is>
       </c>
     </row>
@@ -925,17 +925,17 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>-9.21</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>5.000</t>
+          <t>3.750</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
@@ -945,12 +945,12 @@
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>5.000</t>
+          <t>3.750</t>
         </is>
       </c>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t>20.000</t>
+          <t>14.999</t>
         </is>
       </c>
       <c r="I9" s="3" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
-          <t>20.000</t>
+          <t>14.999</t>
         </is>
       </c>
       <c r="K9" s="3" t="inlineStr">
@@ -980,17 +980,17 @@
       </c>
       <c r="N9" s="3" t="inlineStr">
         <is>
-          <t>2.500</t>
+          <t>1.250</t>
         </is>
       </c>
       <c r="O9" s="3" t="inlineStr">
         <is>
-          <t>10.000</t>
+          <t>4.999</t>
         </is>
       </c>
       <c r="P9" s="3" t="inlineStr">
         <is>
-          <t>27.5</t>
+          <t>25.3</t>
         </is>
       </c>
     </row>
@@ -1002,17 +1002,17 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>-8.41</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>5.000</t>
+          <t>3.750</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>5.000</t>
+          <t>3.750</t>
         </is>
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t>20.000</t>
+          <t>14.999</t>
         </is>
       </c>
       <c r="I10" s="3" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="J10" s="3" t="inlineStr">
         <is>
-          <t>20.000</t>
+          <t>14.999</t>
         </is>
       </c>
       <c r="K10" s="3" t="inlineStr">
@@ -1057,17 +1057,17 @@
       </c>
       <c r="N10" s="3" t="inlineStr">
         <is>
-          <t>2.500</t>
+          <t>1.250</t>
         </is>
       </c>
       <c r="O10" s="3" t="inlineStr">
         <is>
-          <t>10.000</t>
+          <t>4.999</t>
         </is>
       </c>
       <c r="P10" s="3" t="inlineStr">
         <is>
-          <t>29.6</t>
+          <t>26.4</t>
         </is>
       </c>
     </row>
@@ -1079,17 +1079,17 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>-7.67</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>4.625</t>
+          <t>3.750</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
@@ -1099,12 +1099,12 @@
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>4.625</t>
+          <t>3.750</t>
         </is>
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t>18.500</t>
+          <t>14.999</t>
         </is>
       </c>
       <c r="I11" s="3" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="J11" s="3" t="inlineStr">
         <is>
-          <t>18.500</t>
+          <t>14.999</t>
         </is>
       </c>
       <c r="K11" s="3" t="inlineStr">
@@ -1134,17 +1134,17 @@
       </c>
       <c r="N11" s="3" t="inlineStr">
         <is>
-          <t>2.125</t>
+          <t>1.250</t>
         </is>
       </c>
       <c r="O11" s="3" t="inlineStr">
         <is>
-          <t>8.500</t>
+          <t>4.999</t>
         </is>
       </c>
       <c r="P11" s="3" t="inlineStr">
         <is>
-          <t>31.4</t>
+          <t>27.5</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>-7.07</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="P12" s="3" t="inlineStr">
         <is>
-          <t>32.5</t>
+          <t>28.5</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>-6.47</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="P13" s="3" t="inlineStr">
         <is>
-          <t>33.6</t>
+          <t>29.6</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>-5.87</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="P14" s="3" t="inlineStr">
         <is>
-          <t>34.6</t>
+          <t>30.7</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>-5.27</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="P15" s="3" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>31.7</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>-4.67</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="P16" s="3" t="inlineStr">
         <is>
-          <t>36.8</t>
+          <t>32.8</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>-4.07</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="P17" s="3" t="inlineStr">
         <is>
-          <t>37.8</t>
+          <t>33.8</t>
         </is>
       </c>
     </row>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>-3.47</t>
+          <t>6.74</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="P18" s="3" t="inlineStr">
         <is>
-          <t>38.9</t>
+          <t>34.9</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>-2.87</t>
+          <t>7.34</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="P19" s="3" t="inlineStr">
         <is>
-          <t>39.9</t>
+          <t>36.0</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>-2.27</t>
+          <t>7.94</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="P20" s="3" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>37.0</t>
         </is>
       </c>
     </row>
@@ -1847,6 +1847,16 @@
           <t>1:4:15</t>
         </is>
       </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
           <t>3.750</t>
@@ -1904,7 +1914,6013 @@
       </c>
       <c r="P21" s="3" t="inlineStr">
         <is>
-          <t>42.1</t>
+          <t>38.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>1:4:30</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I22" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K22" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L22" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M22" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N22" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O22" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P22" s="3" t="inlineStr">
+        <is>
+          <t>39.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>1:4:45</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H23" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I23" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J23" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K23" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L23" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M23" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N23" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O23" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P23" s="3" t="inlineStr">
+        <is>
+          <t>40.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>1:5:0</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I24" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K24" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L24" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M24" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N24" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O24" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P24" s="3" t="inlineStr">
+        <is>
+          <t>41.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>1:5:15</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I25" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K25" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L25" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M25" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N25" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O25" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P25" s="3" t="inlineStr">
+        <is>
+          <t>42.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>1:5:30</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>11.54</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I26" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K26" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L26" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M26" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N26" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O26" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P26" s="3" t="inlineStr">
+        <is>
+          <t>43.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>1:5:45</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G27" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H27" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I27" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K27" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L27" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M27" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N27" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O27" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P27" s="3" t="inlineStr">
+        <is>
+          <t>44.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>1:6:0</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>12.74</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G28" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H28" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I28" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J28" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K28" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L28" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M28" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N28" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O28" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P28" s="3" t="inlineStr">
+        <is>
+          <t>45.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>1:6:15</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G29" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H29" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I29" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J29" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K29" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L29" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M29" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N29" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O29" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P29" s="3" t="inlineStr">
+        <is>
+          <t>46.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>1:6:30</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G30" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H30" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I30" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K30" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L30" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M30" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N30" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O30" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P30" s="3" t="inlineStr">
+        <is>
+          <t>47.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>1:6:45</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H31" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I31" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J31" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K31" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L31" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M31" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N31" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O31" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P31" s="3" t="inlineStr">
+        <is>
+          <t>48.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>1:7:0</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>15.14</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G32" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H32" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I32" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K32" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L32" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M32" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N32" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O32" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P32" s="3" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>1:7:15</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F33" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G33" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H33" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I33" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K33" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L33" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M33" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N33" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O33" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P33" s="3" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>1:7:30</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>16.34</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G34" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H34" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I34" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K34" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L34" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M34" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N34" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O34" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P34" s="3" t="inlineStr">
+        <is>
+          <t>51.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>1:7:45</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G35" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H35" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I35" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J35" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K35" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L35" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M35" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N35" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O35" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P35" s="3" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>1:8:0</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>17.54</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G36" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H36" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I36" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K36" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L36" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M36" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N36" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O36" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P36" s="3" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>1:8:15</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>18.14</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G37" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H37" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I37" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J37" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K37" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L37" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M37" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N37" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O37" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P37" s="3" t="inlineStr">
+        <is>
+          <t>55.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>1:8:30</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>18.74</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G38" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H38" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I38" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J38" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K38" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L38" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M38" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N38" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O38" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P38" s="3" t="inlineStr">
+        <is>
+          <t>56.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>1:8:45</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G39" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H39" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I39" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K39" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L39" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M39" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N39" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O39" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P39" s="3" t="inlineStr">
+        <is>
+          <t>57.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>1:9:0</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F40" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G40" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H40" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I40" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K40" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L40" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M40" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N40" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O40" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P40" s="3" t="inlineStr">
+        <is>
+          <t>58.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>1:9:15</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G41" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H41" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I41" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K41" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L41" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M41" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N41" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O41" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P41" s="3" t="inlineStr">
+        <is>
+          <t>59.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>1:9:30</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G42" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H42" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I42" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K42" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L42" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M42" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N42" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O42" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P42" s="3" t="inlineStr">
+        <is>
+          <t>60.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>1:9:45</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G43" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H43" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I43" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J43" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K43" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L43" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M43" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N43" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O43" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P43" s="3" t="inlineStr">
+        <is>
+          <t>61.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>1:10:0</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G44" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H44" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I44" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J44" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K44" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L44" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M44" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N44" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O44" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P44" s="3" t="inlineStr">
+        <is>
+          <t>62.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>1:10:15</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>22.93</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F45" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G45" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H45" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I45" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J45" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K45" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L45" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M45" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N45" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O45" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P45" s="3" t="inlineStr">
+        <is>
+          <t>63.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>1:10:30</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H46" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I46" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J46" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K46" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L46" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M46" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N46" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O46" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P46" s="3" t="inlineStr">
+        <is>
+          <t>64.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>1:10:45</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H47" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I47" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J47" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K47" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L47" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M47" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N47" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O47" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P47" s="3" t="inlineStr">
+        <is>
+          <t>65.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>1:11:0</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>24.73</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G48" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H48" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I48" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J48" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K48" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L48" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M48" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N48" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O48" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P48" s="3" t="inlineStr">
+        <is>
+          <t>66.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>1:11:15</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>25.33</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E49" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F49" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G49" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H49" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I49" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J49" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K49" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L49" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M49" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N49" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O49" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P49" s="3" t="inlineStr">
+        <is>
+          <t>67.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>1:11:30</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>25.93</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G50" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H50" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I50" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K50" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L50" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M50" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N50" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O50" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P50" s="3" t="inlineStr">
+        <is>
+          <t>68.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>1:11:45</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>26.53</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G51" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H51" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I51" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J51" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K51" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L51" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M51" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N51" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O51" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P51" s="3" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>1:12:0</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>27.13</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F52" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G52" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H52" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I52" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J52" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K52" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L52" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M52" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N52" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O52" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P52" s="3" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>1:12:15</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>27.73</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G53" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H53" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I53" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J53" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K53" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L53" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M53" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N53" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O53" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P53" s="3" t="inlineStr">
+        <is>
+          <t>72.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>1:12:30</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F54" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G54" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H54" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I54" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J54" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K54" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L54" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M54" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N54" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O54" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P54" s="3" t="inlineStr">
+        <is>
+          <t>73.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>1:12:45</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G55" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H55" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I55" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J55" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K55" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L55" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M55" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N55" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O55" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P55" s="3" t="inlineStr">
+        <is>
+          <t>74.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>1:13:0</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G56" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H56" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I56" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J56" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K56" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L56" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M56" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N56" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O56" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P56" s="3" t="inlineStr">
+        <is>
+          <t>75.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>1:13:15</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E57" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F57" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G57" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H57" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I57" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J57" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K57" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L57" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M57" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N57" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O57" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P57" s="3" t="inlineStr">
+        <is>
+          <t>76.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>1:13:30</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>30.73</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F58" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G58" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H58" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I58" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J58" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K58" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L58" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M58" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N58" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O58" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P58" s="3" t="inlineStr">
+        <is>
+          <t>77.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>1:13:45</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>31.33</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F59" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G59" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H59" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I59" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J59" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K59" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L59" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M59" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N59" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O59" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P59" s="3" t="inlineStr">
+        <is>
+          <t>78.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="3" t="inlineStr">
+        <is>
+          <t>1:14:0</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>31.93</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="F60" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G60" s="3" t="inlineStr">
+        <is>
+          <t>3.750</t>
+        </is>
+      </c>
+      <c r="H60" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="I60" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J60" s="3" t="inlineStr">
+        <is>
+          <t>14.999</t>
+        </is>
+      </c>
+      <c r="K60" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L60" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M60" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N60" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="O60" s="3" t="inlineStr">
+        <is>
+          <t>4.999</t>
+        </is>
+      </c>
+      <c r="P60" s="3" t="inlineStr">
+        <is>
+          <t>79.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>1:14:15</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E61" s="3" t="inlineStr">
+        <is>
+          <t>3.083</t>
+        </is>
+      </c>
+      <c r="F61" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G61" s="3" t="inlineStr">
+        <is>
+          <t>3.083</t>
+        </is>
+      </c>
+      <c r="H61" s="3" t="inlineStr">
+        <is>
+          <t>12.333</t>
+        </is>
+      </c>
+      <c r="I61" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J61" s="3" t="inlineStr">
+        <is>
+          <t>12.333</t>
+        </is>
+      </c>
+      <c r="K61" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L61" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M61" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N61" s="3" t="inlineStr">
+        <is>
+          <t>0.583</t>
+        </is>
+      </c>
+      <c r="O61" s="3" t="inlineStr">
+        <is>
+          <t>2.333</t>
+        </is>
+      </c>
+      <c r="P61" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="3" t="inlineStr">
+        <is>
+          <t>1:14:30</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G62" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H62" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I62" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J62" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K62" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L62" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M62" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N62" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O62" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P62" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="3" t="inlineStr">
+        <is>
+          <t>1:14:45</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t>33.23</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F63" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G63" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H63" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I63" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J63" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K63" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L63" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M63" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N63" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O63" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P63" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="3" t="inlineStr">
+        <is>
+          <t>1:15:0</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>33.63</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F64" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G64" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H64" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I64" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J64" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K64" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L64" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M64" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N64" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O64" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P64" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>1:15:15</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>34.03</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F65" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G65" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H65" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I65" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J65" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K65" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L65" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M65" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N65" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O65" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P65" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>1:15:30</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>34.43</t>
+        </is>
+      </c>
+      <c r="D66" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F66" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G66" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H66" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I66" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J66" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K66" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L66" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M66" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N66" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O66" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P66" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>1:15:45</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t>34.83</t>
+        </is>
+      </c>
+      <c r="D67" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E67" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F67" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G67" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H67" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I67" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J67" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K67" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L67" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M67" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N67" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O67" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P67" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="3" t="inlineStr">
+        <is>
+          <t>1:16:0</t>
+        </is>
+      </c>
+      <c r="C68" s="3" t="inlineStr">
+        <is>
+          <t>35.23</t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F68" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G68" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H68" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I68" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J68" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K68" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L68" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M68" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N68" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O68" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P68" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="3" t="inlineStr">
+        <is>
+          <t>1:16:15</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>35.63</t>
+        </is>
+      </c>
+      <c r="D69" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E69" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F69" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G69" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H69" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I69" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J69" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K69" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L69" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M69" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N69" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O69" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P69" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="3" t="inlineStr">
+        <is>
+          <t>1:16:30</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>36.03</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E70" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F70" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G70" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H70" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I70" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J70" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K70" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L70" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M70" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N70" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O70" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P70" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>1:16:45</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>36.43</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E71" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F71" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G71" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H71" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I71" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J71" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K71" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L71" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M71" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N71" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O71" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P71" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="3" t="inlineStr">
+        <is>
+          <t>1:17:0</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="inlineStr">
+        <is>
+          <t>36.83</t>
+        </is>
+      </c>
+      <c r="D72" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E72" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F72" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G72" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H72" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I72" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J72" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K72" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L72" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M72" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N72" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O72" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P72" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="3" t="inlineStr">
+        <is>
+          <t>1:17:15</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t>37.23</t>
+        </is>
+      </c>
+      <c r="D73" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E73" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F73" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G73" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H73" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I73" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J73" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K73" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L73" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M73" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N73" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O73" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P73" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" s="3" t="inlineStr">
+        <is>
+          <t>1:17:30</t>
+        </is>
+      </c>
+      <c r="C74" s="3" t="inlineStr">
+        <is>
+          <t>37.63</t>
+        </is>
+      </c>
+      <c r="D74" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E74" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F74" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G74" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H74" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I74" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J74" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K74" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L74" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M74" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N74" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O74" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P74" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="3" t="inlineStr">
+        <is>
+          <t>1:17:45</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="inlineStr">
+        <is>
+          <t>38.03</t>
+        </is>
+      </c>
+      <c r="D75" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E75" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F75" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G75" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H75" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I75" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J75" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K75" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L75" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M75" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N75" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O75" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P75" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="3" t="inlineStr">
+        <is>
+          <t>1:18:0</t>
+        </is>
+      </c>
+      <c r="C76" s="3" t="inlineStr">
+        <is>
+          <t>38.43</t>
+        </is>
+      </c>
+      <c r="D76" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E76" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F76" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G76" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H76" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I76" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J76" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K76" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L76" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M76" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N76" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O76" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P76" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="3" t="inlineStr">
+        <is>
+          <t>1:18:15</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr">
+        <is>
+          <t>38.83</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E77" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F77" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G77" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H77" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I77" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J77" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K77" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L77" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M77" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N77" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O77" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P77" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" s="3" t="inlineStr">
+        <is>
+          <t>1:18:30</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="inlineStr">
+        <is>
+          <t>39.23</t>
+        </is>
+      </c>
+      <c r="D78" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E78" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F78" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G78" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H78" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I78" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J78" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K78" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L78" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M78" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N78" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O78" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P78" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="3" t="inlineStr">
+        <is>
+          <t>1:18:45</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="inlineStr">
+        <is>
+          <t>39.63</t>
+        </is>
+      </c>
+      <c r="D79" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E79" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F79" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G79" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H79" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I79" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J79" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K79" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L79" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M79" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N79" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O79" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P79" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" s="3" t="inlineStr">
+        <is>
+          <t>1:19:0</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>40.03</t>
+        </is>
+      </c>
+      <c r="D80" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F80" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G80" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H80" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I80" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J80" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K80" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L80" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M80" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N80" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O80" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P80" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" s="3" t="inlineStr">
+        <is>
+          <t>1:19:15</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="inlineStr">
+        <is>
+          <t>40.43</t>
+        </is>
+      </c>
+      <c r="D81" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E81" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F81" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G81" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H81" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I81" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J81" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K81" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L81" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M81" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N81" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O81" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P81" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" s="3" t="inlineStr">
+        <is>
+          <t>1:19:30</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="D82" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E82" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F82" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G82" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H82" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I82" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J82" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K82" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L82" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M82" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N82" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O82" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P82" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" s="3" t="inlineStr">
+        <is>
+          <t>1:19:45</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="inlineStr">
+        <is>
+          <t>41.23</t>
+        </is>
+      </c>
+      <c r="D83" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E83" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F83" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G83" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H83" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I83" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J83" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K83" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L83" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M83" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N83" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O83" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P83" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" s="3" t="inlineStr">
+        <is>
+          <t>1:20:0</t>
+        </is>
+      </c>
+      <c r="C84" s="3" t="inlineStr">
+        <is>
+          <t>41.63</t>
+        </is>
+      </c>
+      <c r="D84" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E84" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F84" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G84" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H84" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I84" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J84" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K84" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L84" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M84" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N84" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O84" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P84" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="B85" s="3" t="inlineStr">
+        <is>
+          <t>1:20:15</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="inlineStr">
+        <is>
+          <t>42.03</t>
+        </is>
+      </c>
+      <c r="D85" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E85" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F85" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G85" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H85" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I85" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J85" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K85" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L85" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M85" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N85" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O85" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P85" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" s="3" t="inlineStr">
+        <is>
+          <t>1:20:30</t>
+        </is>
+      </c>
+      <c r="C86" s="3" t="inlineStr">
+        <is>
+          <t>42.43</t>
+        </is>
+      </c>
+      <c r="D86" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E86" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F86" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G86" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H86" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I86" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J86" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K86" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L86" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M86" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N86" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O86" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P86" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" s="3" t="inlineStr">
+        <is>
+          <t>1:20:45</t>
+        </is>
+      </c>
+      <c r="C87" s="3" t="inlineStr">
+        <is>
+          <t>42.83</t>
+        </is>
+      </c>
+      <c r="D87" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E87" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F87" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G87" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H87" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I87" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J87" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K87" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L87" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M87" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N87" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O87" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P87" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" s="3" t="inlineStr">
+        <is>
+          <t>1:21:0</t>
+        </is>
+      </c>
+      <c r="C88" s="3" t="inlineStr">
+        <is>
+          <t>43.23</t>
+        </is>
+      </c>
+      <c r="D88" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E88" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F88" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G88" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H88" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I88" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J88" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K88" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L88" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M88" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N88" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O88" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P88" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" s="3" t="inlineStr">
+        <is>
+          <t>1:21:15</t>
+        </is>
+      </c>
+      <c r="C89" s="3" t="inlineStr">
+        <is>
+          <t>43.63</t>
+        </is>
+      </c>
+      <c r="D89" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E89" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F89" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G89" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H89" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I89" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J89" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K89" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L89" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M89" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N89" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O89" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P89" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" s="3" t="inlineStr">
+        <is>
+          <t>1:21:30</t>
+        </is>
+      </c>
+      <c r="C90" s="3" t="inlineStr">
+        <is>
+          <t>44.03</t>
+        </is>
+      </c>
+      <c r="D90" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E90" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F90" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G90" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H90" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I90" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J90" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K90" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L90" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M90" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N90" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O90" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P90" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" s="3" t="inlineStr">
+        <is>
+          <t>1:21:45</t>
+        </is>
+      </c>
+      <c r="C91" s="3" t="inlineStr">
+        <is>
+          <t>44.43</t>
+        </is>
+      </c>
+      <c r="D91" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E91" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F91" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G91" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H91" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I91" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J91" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K91" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L91" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M91" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N91" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O91" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P91" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" s="3" t="inlineStr">
+        <is>
+          <t>1:22:0</t>
+        </is>
+      </c>
+      <c r="C92" s="3" t="inlineStr">
+        <is>
+          <t>44.83</t>
+        </is>
+      </c>
+      <c r="D92" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E92" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F92" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G92" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H92" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I92" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J92" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K92" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L92" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M92" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N92" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O92" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P92" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" s="3" t="inlineStr">
+        <is>
+          <t>1:22:15</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="inlineStr">
+        <is>
+          <t>45.23</t>
+        </is>
+      </c>
+      <c r="D93" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E93" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F93" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G93" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H93" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I93" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J93" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K93" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L93" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M93" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N93" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O93" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P93" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" s="3" t="inlineStr">
+        <is>
+          <t>1:22:30</t>
+        </is>
+      </c>
+      <c r="C94" s="3" t="inlineStr">
+        <is>
+          <t>45.63</t>
+        </is>
+      </c>
+      <c r="D94" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E94" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F94" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G94" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H94" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I94" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J94" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K94" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L94" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M94" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N94" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O94" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P94" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" s="3" t="inlineStr">
+        <is>
+          <t>1:22:45</t>
+        </is>
+      </c>
+      <c r="C95" s="3" t="inlineStr">
+        <is>
+          <t>46.03</t>
+        </is>
+      </c>
+      <c r="D95" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E95" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F95" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G95" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H95" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I95" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J95" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K95" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L95" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M95" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N95" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O95" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P95" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" s="3" t="inlineStr">
+        <is>
+          <t>1:23:0</t>
+        </is>
+      </c>
+      <c r="C96" s="3" t="inlineStr">
+        <is>
+          <t>46.43</t>
+        </is>
+      </c>
+      <c r="D96" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E96" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F96" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G96" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H96" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I96" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J96" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K96" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L96" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M96" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N96" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O96" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P96" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" s="3" t="inlineStr">
+        <is>
+          <t>1:23:15</t>
+        </is>
+      </c>
+      <c r="C97" s="3" t="inlineStr">
+        <is>
+          <t>46.83</t>
+        </is>
+      </c>
+      <c r="D97" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E97" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F97" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G97" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H97" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I97" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J97" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K97" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L97" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M97" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N97" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O97" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P97" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" s="3" t="inlineStr">
+        <is>
+          <t>1:23:30</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="inlineStr">
+        <is>
+          <t>47.23</t>
+        </is>
+      </c>
+      <c r="D98" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E98" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F98" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G98" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H98" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I98" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J98" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K98" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L98" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M98" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N98" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O98" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P98" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" s="3" t="inlineStr">
+        <is>
+          <t>1:23:45</t>
+        </is>
+      </c>
+      <c r="C99" s="3" t="inlineStr">
+        <is>
+          <t>47.62</t>
+        </is>
+      </c>
+      <c r="D99" s="3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E99" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="F99" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G99" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="H99" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="I99" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J99" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="K99" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L99" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M99" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N99" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O99" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P99" s="3" t="inlineStr">
+        <is>
+          <t>80.0</t>
         </is>
       </c>
     </row>
